--- a/Reports/IT/Conclusion of IT.xlsx
+++ b/Reports/IT/Conclusion of IT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454475E-5360-433D-9BB7-2585D126F331}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD4CC09-4B81-4008-9C10-A9DED0083F88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>Timestamp</t>
   </si>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>Administrative Officer (7 years experience)</t>
-  </si>
-  <si>
-    <t>Average of Project Manager (7 years experience)</t>
   </si>
   <si>
     <t>Communication Skills</t>
@@ -477,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -485,11 +482,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -500,7 +608,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,11 +1164,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43651.454824189816" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{D570F9E3-F42A-4CE4-80A4-62A5BAB4F987}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43658.430245601849" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{D570F9E3-F42A-4CE4-80A4-62A5BAB4F987}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
-  <cacheFields count="55">
+  <cacheFields count="69">
     <cacheField name="Timestamp" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-06-12T12:23:00" maxDate="2019-07-01T14:02:02"/>
     </cacheField>
@@ -1217,6 +1333,48 @@
     </cacheField>
     <cacheField name="What kind of skills does your Company or Organization require?" numFmtId="0">
       <sharedItems longText="1"/>
+    </cacheField>
+    <cacheField name="Column1" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column2" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column3" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column4" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column5" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column6" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column7" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column8" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column9" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column10" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column11" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column12" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column13" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Column14" numFmtId="0">
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1284,7 +1442,21 @@
     <s v="ENGINEER"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Problem Solving, Languages"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Problem Solving"/>
+    <s v=" Languages"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-07-01T14:02:02"/>
@@ -1341,7 +1513,21 @@
     <s v="Mobile Application Developer, UX/UI Designer, Quality Assurance (Tester), Project Manager, Business Analyst, Admin Officer, Accountant, Finance Officer and HR Officer"/>
     <m/>
     <m/>
-    <s v="Communication Skills, Technical Knowledge, Teamwork and Collaboration, Problem Solving, Self-Management and Initiative, Critical and Creative Thinking, Global Fluency &amp; Perspective, Flexibility / Adaptability, Leadership / Management Skills, Self-confidence, Languages, Sales and Marketing Skills, Computer / IT Literacy, Time Management"/>
+    <s v="Communication Skills"/>
+    <s v=" Technical Knowledge"/>
+    <s v=" Teamwork and Collaboration"/>
+    <s v=" Problem Solving"/>
+    <s v=" Self-Management and Initiative"/>
+    <s v=" Critical and Creative Thinking"/>
+    <s v=" Global Fluency &amp; Perspective"/>
+    <s v=" Flexibility / Adaptability"/>
+    <s v=" Leadership / Management Skills"/>
+    <s v=" Self-confidence"/>
+    <s v=" Languages"/>
+    <s v=" Sales and Marketing Skills"/>
+    <s v=" Computer / IT Literacy"/>
+    <s v=" Time Management"/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-12T12:23:00"/>
@@ -1399,6 +1585,20 @@
     <m/>
     <m/>
     <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-12T13:25:17"/>
@@ -1455,7 +1655,21 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-17T16:53:55"/>
@@ -1512,7 +1726,21 @@
     <m/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-25T13:52:28"/>
@@ -1569,7 +1797,21 @@
     <s v="ການຕະຫລາດ, ວິຊາການໄອທີ"/>
     <m/>
     <m/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການຂາຍ ແລະການຕະຫຼາດ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <d v="2019-06-27T16:29:45"/>
@@ -1626,15 +1868,29 @@
     <m/>
     <s v="Production plan changed"/>
     <s v="Production operator"/>
-    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ, ທັກສະດ້ານເຕັກນິກ, ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ, ທັກສະດ້ານການແກ້ໄຂບັນຫາ, ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ, ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ, ທັກສະດ້ານແນວຄວາມຄິດສາກົນ, ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ, ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ, ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ, ທັກສະດ້ານພາສາ, ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ, ທັກສະດ້ານຄອມພິວເຕີ, ທັກສະດ້ານການຈັດການເວລາ, ທັກສະດ້ານການຈູງໃຈ"/>
+    <s v="ທັກສະດ້ານການຕິດຕໍ່ສື່ສານ"/>
+    <s v=" ທັກສະດ້ານເຕັກນິກ"/>
+    <s v=" ທັກສະດ້ານການເຮັດວຽກເປັນທີມ ແລະການປະສານງານ"/>
+    <s v=" ທັກສະດ້ານການແກ້ໄຂບັນຫາ"/>
+    <s v=" ທັກສະດ້ານການພັດທະນາຕົນເອງ ແລະມີແນວຄິດລິເລີ່ມ"/>
+    <s v=" ທັກສະດ້ານຄວາມຄິດສັງສັນ ແລະຄິດຢ່າງມີວິຈາລະນາຍານ"/>
+    <s v=" ທັກສະດ້ານແນວຄວາມຄິດສາກົນ"/>
+    <s v=" ທັກສະດ້ານການປັບຕົວ ແລະຄວາມຍືດຫຍຸ່ນ"/>
+    <s v=" ທັກສະດ້ານຄວາມເປັນຜູ້ນໍາ ແລະການຈັດການຕ່າງໆ"/>
+    <s v=" ທັກສະດ້ານຄວາມໝັ້ນໃຈຕົນເອງ"/>
+    <s v=" ທັກສະດ້ານພາສາ"/>
+    <s v=" ທັກສະດ້ານການເວົ້າຕໍ່ໜ້າມວນຊົນ"/>
+    <s v=" ທັກສະດ້ານຄອມພິວເຕີ"/>
+    <s v=" ທັກສະດ້ານການຈັດການເວລາ"/>
+    <s v=" ທັກສະດ້ານການຈູງໃຈ"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B17922B-B638-4E53-9D19-A33C0DC7A236}" name="RawData" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="55">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B17922B-B638-4E53-9D19-A33C0DC7A236}" name="RawData" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="69">
     <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1643,7 +1899,21 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1691,15 +1961,6 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Project Manager (7 years experience)" fld="8" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2087,26 +2348,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64E6F1-1976-4166-BD9C-F26F42E6211F}">
-  <dimension ref="A3:A4"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="51.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>93</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <v>1120</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,9 +2461,9 @@
   </sheetPr>
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC8" sqref="BC8:BR8"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2339,46 +2680,46 @@
         <v>10</v>
       </c>
       <c r="BD1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BE1" t="s">
         <v>98</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>99</v>
       </c>
-      <c r="BF1" t="s">
-        <v>100</v>
-      </c>
       <c r="BG1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BH1" t="s">
         <v>111</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>112</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>113</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>114</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>115</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>116</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>117</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>118</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>119</v>
       </c>
-      <c r="BP1" t="s">
-        <v>120</v>
-      </c>
       <c r="BQ1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,16 +2799,16 @@
         <v>17</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD2" t="s">
         <v>94</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>95</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>96</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2628,46 +2969,46 @@
         <v>22</v>
       </c>
       <c r="BC3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" t="s">
         <v>94</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF3" t="s">
         <v>95</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BG3" t="s">
         <v>101</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BH3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM3" t="s">
         <v>96</v>
       </c>
-      <c r="BG3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>106</v>
-      </c>
-      <c r="BL3" t="s">
+      <c r="BN3" t="s">
         <v>107</v>
       </c>
-      <c r="BM3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN3" t="s">
+      <c r="BO3" t="s">
         <v>108</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="BP3" t="s">
         <v>109</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2968,40 +3309,40 @@
       <c r="BA5" s="6"/>
       <c r="BB5" s="6"/>
       <c r="BC5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="BD5" s="6" t="s">
+      <c r="BE5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="BE5" s="6" t="s">
+      <c r="BF5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BF5" s="6" t="s">
+      <c r="BG5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="BG5" s="6" t="s">
+      <c r="BH5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="BH5" s="6" t="s">
+      <c r="BI5" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="BI5" s="6" t="s">
+      <c r="BJ5" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="BJ5" s="6" t="s">
+      <c r="BK5" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="BK5" s="6" t="s">
+      <c r="BL5" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="BL5" s="6" t="s">
+      <c r="BM5" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BM5" s="6" t="s">
+      <c r="BN5" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="BN5" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="BO5" s="6"/>
       <c r="BP5" s="6"/>
@@ -3091,31 +3432,31 @@
       <c r="BA6" s="6"/>
       <c r="BB6" s="6"/>
       <c r="BC6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD6" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="BD6" s="6" t="s">
+      <c r="BE6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="BE6" s="6" t="s">
+      <c r="BF6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BF6" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="BG6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH6" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="BH6" s="6" t="s">
+      <c r="BI6" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="BI6" s="6" t="s">
+      <c r="BJ6" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BJ6" s="6" t="s">
+      <c r="BK6" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="BK6" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="BL6" s="6"/>
       <c r="BM6" s="6"/>
@@ -3232,34 +3573,34 @@
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="BD7" s="6" t="s">
+      <c r="BE7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="BE7" s="6" t="s">
+      <c r="BF7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BF7" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="BG7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BH7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="BJ7" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="BH7" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI7" s="6" t="s">
+      <c r="BK7" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BJ7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="BK7" s="6" t="s">
+      <c r="BL7" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="BL7" s="6" t="s">
-        <v>132</v>
       </c>
       <c r="BM7" s="6"/>
       <c r="BN7" s="6"/>
@@ -3403,49 +3744,49 @@
         <v>48</v>
       </c>
       <c r="BC8" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="BD8" s="6" t="s">
+      <c r="BE8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="BE8" s="6" t="s">
+      <c r="BF8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="BF8" s="6" t="s">
+      <c r="BG8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="BG8" s="6" t="s">
+      <c r="BH8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="BH8" s="6" t="s">
+      <c r="BI8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ8" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="BI8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BJ8" s="6" t="s">
+      <c r="BK8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="BK8" s="6" t="s">
+      <c r="BL8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="BL8" s="6" t="s">
+      <c r="BM8" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="BM8" s="6" t="s">
+      <c r="BN8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="BN8" s="6" t="s">
+      <c r="BP8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BQ8" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="BO8" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="BP8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="BQ8" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="BR8" s="6"/>
       <c r="BS8" s="6"/>

--- a/Reports/IT/Conclusion of IT.xlsx
+++ b/Reports/IT/Conclusion of IT.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\108 Survey Project\Reports\IT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD4CC09-4B81-4008-9C10-A9DED0083F88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9602EB-EEB7-4336-9F47-02E5B4A95641}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="138">
   <si>
     <t>Timestamp</t>
   </si>
@@ -442,6 +443,9 @@
   </si>
   <si>
     <t>Column14</t>
+  </si>
+  <si>
+    <t>Average of Project Manager (7 years experience)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -617,6 +621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,7 +1169,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43658.430245601849" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{D570F9E3-F42A-4CE4-80A4-62A5BAB4F987}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Bee Timberlake" refreshedDate="43676.586464930559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="7" xr:uid="{D570F9E3-F42A-4CE4-80A4-62A5BAB4F987}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -1194,7 +1199,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="450" maxValue="1200"/>
     </cacheField>
     <cacheField name="Project Manager (7 years experience)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="600" maxValue="2400"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="600" maxValue="3000"/>
     </cacheField>
     <cacheField name="Sale Officer (new graduate)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="350"/>
@@ -1467,7 +1472,7 @@
     <n v="300"/>
     <n v="600"/>
     <n v="1200"/>
-    <n v="2400"/>
+    <n v="2000"/>
     <n v="250"/>
     <n v="500"/>
     <n v="1000"/>
@@ -1680,7 +1685,7 @@
     <m/>
     <m/>
     <m/>
-    <m/>
+    <n v="1000"/>
     <n v="100"/>
     <n v="180"/>
     <m/>
@@ -1822,7 +1827,7 @@
     <m/>
     <m/>
     <m/>
-    <m/>
+    <n v="3000"/>
     <n v="250"/>
     <n v="370"/>
     <n v="650"/>
@@ -1888,7 +1893,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B17922B-B638-4E53-9D19-A33C0DC7A236}" name="RawData" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B17922B-B638-4E53-9D19-A33C0DC7A236}" name="RawData" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="69">
     <pivotField numFmtId="164" showAll="0"/>
@@ -1961,6 +1966,101 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D582CFA7-6FBA-45F9-96B5-79636388BEC5}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="69">
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Project Manager (7 years experience)" fld="8" subtotal="average" baseField="0" baseItem="1591753072"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2350,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64E6F1-1976-4166-BD9C-F26F42E6211F}">
   <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2455,15 +2555,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A925038A-467F-4336-84F1-F443B7E7B8AF}">
+  <dimension ref="A3:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>1314.2857142857142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2837,7 +2965,7 @@
         <v>1200</v>
       </c>
       <c r="I3" s="8">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="J3" s="8">
         <v>250</v>
@@ -3375,7 +3503,9 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6">
+        <v>1000</v>
+      </c>
       <c r="J6" s="5">
         <v>100</v>
       </c>
@@ -3635,7 +3765,9 @@
       <c r="F8" s="5"/>
       <c r="G8" s="9"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <v>3000</v>
+      </c>
       <c r="J8" s="5">
         <v>250</v>
       </c>
